--- a/Final_Project_Baseline_Values.xlsx
+++ b/Final_Project_Baseline_Values.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{CFAF9775-1B5B-4C0F-B1B0-9C3030BA8D54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{CFAF9775-1B5B-4C0F-B1B0-9C3030BA8D54}"/>
   </bookViews>
   <sheets>
     <sheet name="SD_Size" sheetId="1" r:id="rId1"/>
@@ -1230,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BE2CDD-7594-420C-9CD6-4020459BCEE3}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2681,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E692753-5EE3-4A47-9D7C-D61B63926A65}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
